--- a/03_Parcial3/Metricas/Taller 1_G3ACSW.xlsx
+++ b/03_Parcial3/Metricas/Taller 1_G3ACSW.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>EL TAMAÑO DEL PRODUCTO</t>
   </si>
@@ -81,43 +81,43 @@
     <t xml:space="preserve">Funciones </t>
   </si>
   <si>
-    <t>Clase de modelo equipo</t>
+    <t>Entidad modelo equipo</t>
   </si>
   <si>
-    <t>Crear el equipo repository con jpa</t>
+    <t>Entidad de equipo repository con jpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear la interfaz de equipos servicios la cual tiene la definicon de metodos </t>
+    <t xml:space="preserve">Interfaz de equipos servicios la cual tiene la definicon de metodos </t>
   </si>
   <si>
-    <t>Crear la clase equipo service implent, la cual da la logica a los servicios de la interfaz</t>
+    <t>Entidad equipo service implent, la cual da la logica a los servicios de la interfaz</t>
   </si>
   <si>
-    <t>Crea los EndPoints de los Microservicios</t>
+    <t>Controlador de los  Microservicios</t>
   </si>
   <si>
-    <t>Crea la clase modelo de torneo enlazado a la BD</t>
+    <t>Entidad de clase modelo de torneo enlazado a la BD</t>
   </si>
   <si>
-    <t>Crear la clase torneo equipo la cual representa la relacion de muchos a muchos entre la tabla torneo y la tabla equipo</t>
+    <t>Entidad clase torneo equipo la cual representa la relacion de muchos a muchos entre la tabla torneo y la tabla equipo</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear la clase equipo que permite interactuar con el microservicio equipo </t>
+    <t xml:space="preserve">Controlador de la entidad equipo que permite interactuar con el microservicio equipo </t>
   </si>
   <si>
-    <t>Crear la clase torneo repository la cual interacua con jpa para trabajar con la BD</t>
+    <t>Entidad torneo repository la cual interacua con jpa para trabajar con la BD</t>
   </si>
   <si>
-    <t>Crear la interfaz Torneo service para definir los metodos a implemntarse</t>
+    <t>Interfaz Torneo service para definir los metodos a implemntarse</t>
   </si>
   <si>
-    <t>Crear la clase torneo service implemts para dar la logica a los metodos de la interfaz</t>
+    <t>Entidad torneo service implemts para dar la logica a los metodos de la interfaz</t>
   </si>
   <si>
-    <t>Crear la conexion feign client la cual nos permite comunicar con el micorservico esquipos</t>
+    <t>Conexion feign client la cual nos permite comunicar con el micorservico esquipos</t>
   </si>
   <si>
-    <t>Crear la clase torneo controller para definir los endpoints en nuestro microservicio</t>
+    <t>Entidad torneo controller para definir los endpoints en nuestro microservicio</t>
   </si>
   <si>
     <t>Estimado</t>
@@ -141,31 +141,40 @@
     <t>Máx.</t>
   </si>
   <si>
-    <t>Crear clase modelo</t>
+    <t>Entidad Equipo</t>
   </si>
   <si>
-    <t>Crear un repositorio con jpa</t>
+    <t>Entidad Equipo_Repository</t>
   </si>
   <si>
-    <t>Crear una interfaz para CRUD</t>
+    <t>Entidad JPA con BD</t>
   </si>
   <si>
-    <t>Implementar las funciones del CRUD</t>
+    <t>Interfaz Torneo - Equipo</t>
   </si>
   <si>
-    <t>Crear los endpoints del microservicio</t>
+    <t>Modelo Torneo</t>
   </si>
   <si>
-    <t>Crear una clase modelo</t>
+    <t xml:space="preserve">Relacion Equipo-Torneo </t>
   </si>
   <si>
-    <t>Crear una clase modelo para una relacion de muchos a muchos</t>
+    <t>Microservicios Equipo</t>
   </si>
   <si>
-    <t xml:space="preserve">Crear una clase modelo </t>
+    <t>Entidad Repositorio</t>
   </si>
   <si>
-    <t>Crear una conexion entre microservicios con feigns</t>
+    <t xml:space="preserve">Interfaz Torneo </t>
+  </si>
+  <si>
+    <t>Controlador</t>
+  </si>
+  <si>
+    <t>FeignClient</t>
+  </si>
+  <si>
+    <t>Microservicios Torneo</t>
   </si>
   <si>
     <t xml:space="preserve">Estimado </t>
@@ -330,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -384,10 +393,15 @@
     <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -410,10 +424,9 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -424,12 +437,14 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -973,29 +988,29 @@
       <c r="D28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="22">
         <f>SUM(E14:E18)+SUM(E20:E27)</f>
         <v>570</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="22">
         <f>(SUM(F14:F18)+SUM(F20:F27))</f>
         <v>329</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29">
       <c r="D29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="23">
         <f t="shared" ref="E29:G29" si="3">AVERAGE(E14:E18,E20:E27)</f>
         <v>43.84615385</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="23">
         <f t="shared" si="3"/>
         <v>25.30769231</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="23">
         <f t="shared" si="3"/>
         <v>1.50224176</v>
       </c>
@@ -1048,7 +1063,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2">
       <c r="D2" s="5" t="s">
@@ -1076,7 +1091,7 @@
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="25">
         <v>45691.0</v>
       </c>
     </row>
@@ -1100,7 +1115,7 @@
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6">
       <c r="D6" s="11"/>
@@ -1113,7 +1128,7 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7">
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3"/>
@@ -1123,7 +1138,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8">
-      <c r="C8" s="27"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1151,7 @@
       <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1150,102 +1165,102 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10">
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <v>1.0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <f>'Estimacion 6.2'!E14</f>
         <v>20</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="30">
         <f>'Estimacion 6.2'!F14</f>
         <v>31</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="30">
         <f>'Estimacion 6.2'!G14</f>
         <v>0.6451612903</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="29">
+      <c r="D11" s="30">
         <v>2.0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <f>'Estimacion 6.2'!E15</f>
         <v>7</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <f>'Estimacion 6.2'!F15</f>
         <v>5</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <f>'Estimacion 6.2'!G15</f>
         <v>1.4</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>3.0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <f>'Estimacion 6.2'!E16</f>
         <v>7</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <f>'Estimacion 6.2'!F16</f>
         <v>6</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <f>'Estimacion 6.2'!G16</f>
         <v>1.166666667</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="29">
+      <c r="D13" s="30">
         <v>4.0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="30">
         <f>'Estimacion 6.2'!E17</f>
         <v>16</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="30">
         <f>'Estimacion 6.2'!F17</f>
         <v>20</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="30">
         <f>'Estimacion 6.2'!G17</f>
         <v>0.8</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="29">
+      <c r="D14" s="30">
         <v>5.0</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="30">
         <f>'Estimacion 6.2'!E18</f>
         <v>45</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="30">
         <f>'Estimacion 6.2'!F18</f>
         <v>38</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="30">
         <f>'Estimacion 6.2'!G18</f>
         <v>1.184210526</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1259,167 +1274,167 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16">
-      <c r="D16" s="29">
+      <c r="D16" s="30">
         <v>6.0</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <f>'Estimacion 6.2'!E20</f>
         <v>40</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="30">
         <f>'Estimacion 6.2'!F20</f>
         <v>30</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="30">
         <f>'Estimacion 6.2'!G20</f>
         <v>1.333333333</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="29">
+      <c r="D17" s="30">
         <v>7.0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <f>'Estimacion 6.2'!E21</f>
         <v>40</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <f>'Estimacion 6.2'!F21</f>
         <v>26</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="30">
         <f>'Estimacion 6.2'!G21</f>
         <v>1.538461538</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="29">
+      <c r="D18" s="30">
         <v>8.0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="30">
         <f>'Estimacion 6.2'!E22</f>
         <v>20</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="30">
         <f>'Estimacion 6.2'!F22</f>
         <v>16</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="30">
         <f>'Estimacion 6.2'!G22</f>
         <v>1.25</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="29">
+      <c r="D19" s="30">
         <v>9.0</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="30">
         <f>'Estimacion 6.2'!E23</f>
         <v>15</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <f>'Estimacion 6.2'!F23</f>
         <v>12</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="30">
         <f>'Estimacion 6.2'!G23</f>
         <v>1.25</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="29">
+      <c r="D20" s="30">
         <v>10.0</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="30">
         <f>'Estimacion 6.2'!E24</f>
         <v>45</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <f>'Estimacion 6.2'!F24</f>
         <v>28</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="30">
         <f>'Estimacion 6.2'!G24</f>
         <v>1.607142857</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="29">
+      <c r="D21" s="30">
         <v>11.0</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="30">
         <f>'Estimacion 6.2'!E25</f>
         <v>180</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <f>'Estimacion 6.2'!F25</f>
         <v>64</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="30">
         <f>'Estimacion 6.2'!G25</f>
         <v>2.8125</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="29">
+      <c r="D22" s="30">
         <v>12.0</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="30">
         <f>'Estimacion 6.2'!E26</f>
         <v>15</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="30">
         <f>'Estimacion 6.2'!F26</f>
         <v>8</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="30">
         <f>'Estimacion 6.2'!G26</f>
         <v>1.875</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="29">
+      <c r="D23" s="30">
         <v>13.0</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="30">
         <f>'Estimacion 6.2'!E27</f>
         <v>120</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="30">
         <f>'Estimacion 6.2'!F27</f>
         <v>45</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="30">
         <f>'Estimacion 6.2'!G27</f>
         <v>2.666666667</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="32">
@@ -4326,6 +4341,7 @@
     <col customWidth="1" hidden="1" min="5" max="5" width="17.75"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="15.88"/>
+    <col customWidth="1" min="8" max="8" width="15.13"/>
     <col customWidth="1" min="9" max="9" width="22.13"/>
     <col customWidth="1" min="11" max="11" width="12.38"/>
     <col customWidth="1" min="12" max="12" width="11.63"/>
@@ -4339,7 +4355,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2">
       <c r="D2" s="5" t="s">
@@ -4367,7 +4383,7 @@
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="25">
         <v>45691.0</v>
       </c>
     </row>
@@ -4391,7 +4407,7 @@
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6">
       <c r="D6" s="11"/>
@@ -4457,172 +4473,172 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10">
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <v>1.0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <f>'Estimacion 6.2'!E14</f>
         <v>20</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="30">
         <f>'Estimacion 6.2'!F14</f>
         <v>31</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="30">
         <f>'Estimacion 6.2'!G14</f>
         <v>0.6451612903</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="31" t="str">
+        <f>'Estimación 6.3'!H16</f>
+        <v>Entidad de clase modelo de torneo enlazado a la BD</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="36" t="str">
-        <f>'Estimación 6.3'!H10</f>
-        <v>Clase de modelo equipo</v>
-      </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>15.0</v>
       </c>
-      <c r="K10" s="38">
-        <f t="shared" ref="K10:K14" si="1">E10</f>
+      <c r="K10" s="37">
+        <f>'Estimación 6.3'!E10</f>
         <v>20</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="36">
         <v>30.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="29">
+      <c r="D11" s="30">
         <v>2.0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="30">
         <f>'Estimacion 6.2'!E15</f>
         <v>7</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <f>'Estimacion 6.2'!F15</f>
         <v>5</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="30">
         <f>'Estimacion 6.2'!G15</f>
         <v>1.4</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="31" t="str">
+        <f>'Estimación 6.3'!H17</f>
+        <v>Entidad clase torneo equipo la cual representa la relacion de muchos a muchos entre la tabla torneo y la tabla equipo</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="36" t="str">
-        <f>'Estimación 6.3'!H11</f>
-        <v>Crear el equipo repository con jpa</v>
-      </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>5.0</v>
       </c>
-      <c r="K11" s="38">
-        <f t="shared" si="1"/>
+      <c r="K11" s="37">
+        <f>'Estimación 6.3'!E11</f>
         <v>7</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <v>10.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="29">
+      <c r="D12" s="30">
         <v>3.0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <f>'Estimacion 6.2'!E16</f>
         <v>7</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <f>'Estimacion 6.2'!F16</f>
         <v>6</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="30">
         <f>'Estimacion 6.2'!G16</f>
         <v>1.166666667</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="36" t="str">
-        <f>'Estimación 6.3'!H12</f>
-        <v>Crear la interfaz de equipos servicios la cual tiene la definicon de metodos </v>
-      </c>
-      <c r="J12" s="37">
+      <c r="H12" s="31" t="str">
+        <f>'Estimación 6.3'!H18</f>
+        <v>Controlador de la entidad equipo que permite interactuar con el microservicio equipo </v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="36">
         <v>5.0</v>
       </c>
-      <c r="K12" s="38">
-        <f t="shared" si="1"/>
+      <c r="K12" s="37">
+        <f>'Estimación 6.3'!E12</f>
         <v>7</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="36">
         <v>10.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="29">
+      <c r="D13" s="30">
         <v>4.0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="30">
         <f>'Estimacion 6.2'!E17</f>
         <v>16</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="30">
         <f>'Estimacion 6.2'!F17</f>
         <v>20</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="30">
         <f>'Estimacion 6.2'!G17</f>
         <v>0.8</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="36" t="str">
-        <f>'Estimación 6.3'!H13</f>
-        <v>Crear la clase equipo service implent, la cual da la logica a los servicios de la interfaz</v>
-      </c>
-      <c r="J13" s="37">
+      <c r="H13" s="31" t="str">
+        <f>'Estimación 6.3'!H19</f>
+        <v>Entidad torneo repository la cual interacua con jpa para trabajar con la BD</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="36">
         <v>15.0</v>
       </c>
-      <c r="K13" s="38">
-        <f t="shared" si="1"/>
+      <c r="K13" s="37">
+        <f>'Estimación 6.3'!E13</f>
         <v>16</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="36">
         <v>30.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="29">
+      <c r="D14" s="30">
         <v>5.0</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="30">
         <f>'Estimacion 6.2'!E18</f>
         <v>45</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="30">
         <f>'Estimacion 6.2'!F18</f>
         <v>38</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="30">
         <f>'Estimacion 6.2'!G18</f>
         <v>1.184210526</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="36" t="str">
-        <f>'Estimación 6.3'!H14</f>
-        <v>Crea los EndPoints de los Microservicios</v>
-      </c>
-      <c r="J14" s="37">
+      <c r="H14" s="31" t="str">
+        <f>'Estimación 6.3'!H20</f>
+        <v>Interfaz Torneo service para definir los metodos a implemntarse</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="36">
         <v>30.0</v>
       </c>
-      <c r="K14" s="38">
-        <f t="shared" si="1"/>
+      <c r="K14" s="37">
+        <f>'Estimación 6.3'!E14</f>
         <v>45</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="36">
         <v>60.0</v>
       </c>
     </row>
@@ -4640,308 +4656,308 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16">
-      <c r="D16" s="29">
+      <c r="D16" s="30">
         <v>6.0</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <f>'Estimacion 6.2'!E20</f>
         <v>40</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="30">
         <f>'Estimacion 6.2'!F20</f>
         <v>30</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="30">
         <f>'Estimacion 6.2'!G20</f>
         <v>1.333333333</v>
       </c>
-      <c r="H16" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="36" t="str">
+      <c r="H16" s="31" t="str">
         <f>'Estimación 6.3'!H16</f>
-        <v>Crea la clase modelo de torneo enlazado a la BD</v>
-      </c>
-      <c r="J16" s="37">
+        <v>Entidad de clase modelo de torneo enlazado a la BD</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="36">
         <v>30.0</v>
       </c>
-      <c r="K16" s="38">
-        <f t="shared" ref="K16:K23" si="2">E16</f>
+      <c r="K16" s="37">
+        <f>'Estimación 6.3'!E16</f>
         <v>40</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="36">
         <v>45.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="29">
+      <c r="D17" s="30">
         <v>7.0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="30">
         <f>'Estimacion 6.2'!E21</f>
         <v>40</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <f>'Estimacion 6.2'!F21</f>
         <v>26</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="30">
         <f>'Estimacion 6.2'!G21</f>
         <v>1.538461538</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="36" t="str">
+      <c r="H17" s="31" t="str">
         <f>'Estimación 6.3'!H17</f>
-        <v>Crear la clase torneo equipo la cual representa la relacion de muchos a muchos entre la tabla torneo y la tabla equipo</v>
-      </c>
-      <c r="J17" s="37">
+        <v>Entidad clase torneo equipo la cual representa la relacion de muchos a muchos entre la tabla torneo y la tabla equipo</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="36">
         <v>30.0</v>
       </c>
-      <c r="K17" s="38">
-        <f t="shared" si="2"/>
+      <c r="K17" s="37">
+        <f>'Estimación 6.3'!E17</f>
         <v>40</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <v>45.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="29">
+      <c r="D18" s="30">
         <v>8.0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="30">
         <f>'Estimacion 6.2'!E22</f>
         <v>20</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="30">
         <f>'Estimacion 6.2'!F22</f>
         <v>16</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="30">
         <f>'Estimacion 6.2'!G22</f>
         <v>1.25</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="36" t="str">
+      <c r="H18" s="31" t="str">
         <f>'Estimación 6.3'!H18</f>
-        <v>Crear la clase equipo que permite interactuar con el microservicio equipo </v>
-      </c>
-      <c r="J18" s="37">
+        <v>Controlador de la entidad equipo que permite interactuar con el microservicio equipo </v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="36">
         <v>15.0</v>
       </c>
-      <c r="K18" s="38">
-        <f t="shared" si="2"/>
+      <c r="K18" s="37">
+        <f>'Estimación 6.3'!E18</f>
         <v>20</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="36">
         <v>30.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="29">
+      <c r="D19" s="30">
         <v>9.0</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="30">
         <f>'Estimacion 6.2'!E23</f>
         <v>15</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <f>'Estimacion 6.2'!F23</f>
         <v>12</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="30">
         <f>'Estimacion 6.2'!G23</f>
         <v>1.25</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="36" t="str">
+      <c r="H19" s="31" t="str">
         <f>'Estimación 6.3'!H19</f>
-        <v>Crear la clase torneo repository la cual interacua con jpa para trabajar con la BD</v>
-      </c>
-      <c r="J19" s="37">
+        <v>Entidad torneo repository la cual interacua con jpa para trabajar con la BD</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="36">
         <v>10.0</v>
       </c>
-      <c r="K19" s="38">
-        <f t="shared" si="2"/>
+      <c r="K19" s="37">
+        <f>'Estimación 6.3'!E19</f>
         <v>15</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="36">
         <v>20.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="29">
+      <c r="D20" s="30">
         <v>10.0</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="30">
         <f>'Estimacion 6.2'!E24</f>
         <v>45</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <f>'Estimacion 6.2'!F24</f>
         <v>28</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="30">
         <f>'Estimacion 6.2'!G24</f>
         <v>1.607142857</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="36" t="str">
+      <c r="H20" s="31" t="str">
         <f>'Estimación 6.3'!H20</f>
-        <v>Crear la interfaz Torneo service para definir los metodos a implemntarse</v>
-      </c>
-      <c r="J20" s="37">
+        <v>Interfaz Torneo service para definir los metodos a implemntarse</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="36">
         <v>30.0</v>
       </c>
-      <c r="K20" s="38">
-        <f t="shared" si="2"/>
+      <c r="K20" s="37">
+        <f>'Estimación 6.3'!E20</f>
         <v>45</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="36">
         <v>60.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="29">
+      <c r="D21" s="30">
         <v>11.0</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="30">
         <f>'Estimacion 6.2'!E25</f>
         <v>180</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <f>'Estimacion 6.2'!F25</f>
         <v>64</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="30">
         <f>'Estimacion 6.2'!G25</f>
         <v>2.8125</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="36" t="str">
+      <c r="H21" s="31" t="str">
         <f>'Estimación 6.3'!H21</f>
-        <v>Crear la clase torneo service implemts para dar la logica a los metodos de la interfaz</v>
-      </c>
-      <c r="J21" s="37">
+        <v>Entidad torneo service implemts para dar la logica a los metodos de la interfaz</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="36">
         <v>160.0</v>
       </c>
-      <c r="K21" s="38">
-        <f t="shared" si="2"/>
+      <c r="K21" s="37">
+        <f>'Estimación 6.3'!E21</f>
         <v>180</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="36">
         <v>200.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="29">
+      <c r="D22" s="30">
         <v>12.0</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="30">
         <f>'Estimacion 6.2'!E26</f>
         <v>15</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="30">
         <f>'Estimacion 6.2'!F26</f>
         <v>8</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="30">
         <f>'Estimacion 6.2'!G26</f>
         <v>1.875</v>
       </c>
-      <c r="H22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="36" t="str">
+      <c r="H22" s="31" t="str">
         <f>'Estimación 6.3'!H22</f>
-        <v>Crear la conexion feign client la cual nos permite comunicar con el micorservico esquipos</v>
-      </c>
-      <c r="J22" s="37">
+        <v>Conexion feign client la cual nos permite comunicar con el micorservico esquipos</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="36">
         <v>10.0</v>
       </c>
-      <c r="K22" s="38">
-        <f t="shared" si="2"/>
+      <c r="K22" s="37">
+        <f>'Estimación 6.3'!E22</f>
         <v>15</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="36">
         <v>20.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="29">
+      <c r="D23" s="30">
         <v>13.0</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="30">
         <f>'Estimacion 6.2'!E27</f>
         <v>120</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="30">
         <f>'Estimacion 6.2'!F27</f>
         <v>45</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="30">
         <f>'Estimacion 6.2'!G27</f>
         <v>2.666666667</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="36" t="str">
+      <c r="H23" s="31" t="str">
         <f>'Estimación 6.3'!H23</f>
-        <v>Crear la clase torneo controller para definir los endpoints en nuestro microservicio</v>
-      </c>
-      <c r="J23" s="37">
+        <v>Entidad torneo controller para definir los endpoints en nuestro microservicio</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="36">
         <v>100.0</v>
       </c>
-      <c r="K23" s="38">
-        <f t="shared" si="2"/>
+      <c r="K23" s="37">
+        <f>'Estimación 6.3'!E23</f>
         <v>120</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="36">
         <v>140.0</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <f t="shared" ref="F24:L24" si="3">SUM(F16:F23)+SUM(F10:F14)</f>
+        <v>54</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38">
+        <f t="shared" ref="F24:J24" si="1">SUM(F16:F23)+SUM(F10:F14)</f>
         <v>329</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="3"/>
+      <c r="G24" s="38">
+        <f t="shared" si="1"/>
         <v>19.52914288</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="3"/>
+      <c r="H24" s="38">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="23">
-        <f t="shared" si="3"/>
+      <c r="I24" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="1">
-        <f t="shared" si="3"/>
+      <c r="J24" s="38">
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="K24" s="1">
-        <f t="shared" si="3"/>
+      <c r="K24" s="40">
+        <f>'Estimación 6.3'!E24</f>
         <v>570</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" si="3"/>
+      <c r="L24" s="38">
+        <f>SUM(L16:L23)+SUM(L10:L14)</f>
         <v>700</v>
       </c>
     </row>
@@ -8756,8 +8772,8 @@
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D7:J7"/>
     <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D7:J7"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="D3:D6"/>

--- a/03_Parcial3/Metricas/Taller 1_G3ACSW.xlsx
+++ b/03_Parcial3/Metricas/Taller 1_G3ACSW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>EL TAMAÑO DEL PRODUCTO</t>
   </si>
@@ -181,7 +181,13 @@
     <t xml:space="preserve">Estimado </t>
   </si>
   <si>
+    <t xml:space="preserve">Cálculo de defectos </t>
+  </si>
+  <si>
     <t>Tabla 15,1 Estimación de Defectos</t>
+  </si>
+  <si>
+    <t>Jenny Ruiz</t>
   </si>
   <si>
     <t xml:space="preserve">Numero de programas </t>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -485,11 +491,20 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -499,10 +514,10 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6145,8 +6160,8 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
+      <c r="C2" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6154,8 +6169,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3">
-      <c r="B3" s="38" t="s">
-        <v>55</v>
+      <c r="B3" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6173,13 +6188,13 @@
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>5</v>
+      <c r="E4" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="41">
         <v>45698.0</v>
       </c>
     </row>
@@ -6216,9 +6231,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8">
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="42"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -6226,366 +6239,363 @@
       <c r="G8" s="4"/>
     </row>
     <row r="10">
-      <c r="B10" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="B10" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="C10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="43" t="s">
         <v>58</v>
       </c>
+      <c r="H10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="41">
+      <c r="B11" s="44">
         <v>1.0</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="43">
         <v>5.0</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="45">
         <f>'Estimacion 6.2'!F14</f>
         <v>31</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="44">
         <v>1.0</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="43">
         <v>3.0</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="43">
         <v>28.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="41">
+      <c r="B12" s="44">
         <v>2.0</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="43">
         <v>3.0</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="45">
         <f>'Estimacion 6.2'!F15</f>
         <v>5</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="44">
         <v>2.0</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="43">
         <v>1.0</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="43">
         <v>10.0</v>
       </c>
-      <c r="K12" s="43">
-        <v>1000.0</v>
-      </c>
     </row>
     <row r="13">
-      <c r="B13" s="41">
+      <c r="B13" s="44">
         <v>3.0</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="43">
         <v>1.0</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="45">
         <f>'Estimacion 6.2'!F16</f>
         <v>6</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="44">
         <v>3.0</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="43">
         <v>2.0</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="43">
         <v>15.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="41">
+      <c r="B14" s="44">
         <v>4.0</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="43">
         <v>8.0</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="45">
         <f>'Estimacion 6.2'!F17</f>
         <v>20</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="44">
         <v>4.0</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="43">
         <v>4.0</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="43">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="41">
+      <c r="B15" s="44">
         <v>5.0</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="43">
         <v>10.0</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="45">
         <f>'Estimacion 6.2'!F18</f>
         <v>38</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="44">
         <v>5.0</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="43">
         <v>4.0</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="43">
         <v>25.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="41">
+      <c r="B16" s="44">
         <v>6.0</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="43">
         <v>8.0</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="45">
         <f>'Estimacion 6.2'!F20</f>
         <v>30</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="44">
         <v>6.0</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="43">
         <v>2.0</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="43">
         <v>20.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="41">
+      <c r="B17" s="44">
         <v>7.0</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="43">
         <v>11.0</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="45">
         <f>'Estimacion 6.2'!F21</f>
         <v>26</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="44">
         <v>7.0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="43">
         <v>5.0</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="43">
         <v>50.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="41">
+      <c r="B18" s="44">
         <v>8.0</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="43">
         <v>1.0</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="45">
         <f>'Estimacion 6.2'!F22</f>
         <v>16</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="44">
         <v>8.0</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="43">
         <v>2.0</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="43">
         <v>16.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="41">
+      <c r="B19" s="44">
         <v>9.0</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="43">
         <v>1.0</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="45">
         <f>'Estimacion 6.2'!F23</f>
         <v>12</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="44">
         <v>9.0</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="43">
         <v>1.0</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="43">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="41">
+      <c r="B20" s="44">
         <v>10.0</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="43">
         <v>6.0</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="45">
         <f>'Estimacion 6.2'!F24</f>
         <v>28</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="44">
         <v>10.0</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="43">
         <v>6.0</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="43">
         <v>9.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="41">
+      <c r="B21" s="44">
         <v>11.0</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="43">
         <v>10.0</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="45">
         <f>'Estimacion 6.2'!F25</f>
         <v>64</v>
       </c>
-      <c r="G21" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="40">
+      <c r="G21" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="43">
         <f t="shared" ref="H21:I21" si="1">SUM(H11:H20)</f>
         <v>30</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="45">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="41">
+      <c r="B22" s="44">
         <v>12.0</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="43">
         <v>1.0</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="45">
         <f>'Estimacion 6.2'!F26</f>
         <v>8</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="45" t="str">
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48" t="str">
         <f>'Estimacion 6.2'!K26</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="41">
+      <c r="B23" s="44">
         <v>13.0</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="43">
         <v>9.0</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="45">
         <f>'Estimacion 6.2'!F27</f>
         <v>45</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="45" t="str">
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48" t="str">
         <f>'Estimacion 6.2'!K27</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="42">
+      <c r="B24" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="45">
         <f>SUM(C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23)</f>
         <v>74</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="45">
         <f>SUM(D11:D23)</f>
         <v>329</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="46" t="s">
-        <v>60</v>
+      <c r="G25" s="49" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27">
-      <c r="H27" s="43" t="s">
-        <v>61</v>
+      <c r="H27" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="46" t="s">
-        <v>62</v>
+      <c r="B28" s="49" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="47">
+      <c r="B30" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="50">
         <f>1000*(C24)/(D24)</f>
         <v>224.9240122</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>66</v>
       </c>
+      <c r="G30" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31">
-      <c r="C31" s="47"/>
+      <c r="C31" s="50"/>
     </row>
     <row r="32">
-      <c r="H32" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="47">
+      <c r="H32" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="50">
         <f>(I21*C30)/1000</f>
         <v>44.75987842</v>
       </c>
-      <c r="J32" s="43" t="s">
-        <v>64</v>
+      <c r="J32" s="47" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35">
-      <c r="G35" s="43" t="s">
-        <v>68</v>
+      <c r="G35" s="47" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36">
-      <c r="H36" s="43" t="s">
-        <v>69</v>
+      <c r="H36" s="47" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6601,9 +6611,6 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B8"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>